--- a/docs/excel/Share.xlsx
+++ b/docs/excel/Share.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -374,14 +374,330 @@
   </si>
   <si>
     <t>在时间范围内的次数限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解锁新形象奖励该形象产量乘以倍数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解锁新关卡奖励上关卡最后一个形象产量乘以倍数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解锁新章节奖励上一章节每关最后一个形象，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个形象之和乘以倍数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>体力不足，每天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次分享，一次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小游分享，每天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次，一次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>翻牌子结果分享，每天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次，一次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倍</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随机约会结果分享，每天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次，一次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倍</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>招募金币不足，每天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次机会分享给奖励，当前关卡最后一个人倍数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回忆录分享，当前当前关卡最后一个人倍数，每个事件分享一次</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -401,6 +717,12 @@
       <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -435,7 +757,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -448,6 +770,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -789,14 +1114,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.69921875" style="4" customWidth="1"/>
     <col min="2" max="2" width="95.8984375" style="4" customWidth="1"/>
@@ -804,7 +1129,7 @@
     <col min="4" max="4" width="43.296875" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.69921875" style="4" customWidth="1"/>
     <col min="6" max="6" width="20.296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.59765625" style="4" customWidth="1"/>
     <col min="8" max="8" width="31.5" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.296875" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.296875" style="4" bestFit="1" customWidth="1"/>
@@ -814,7 +1139,7 @@
     <col min="15" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -833,8 +1158,11 @@
       <c r="F1" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -854,12 +1182,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -879,9 +1207,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="36.75" customHeight="1">
+    <row r="5" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -893,61 +1221,2699 @@
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>10001</v>
+        <v>1800</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="36.75" customHeight="1">
+      <c r="G5" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>102</v>
+        <v>10002</v>
       </c>
       <c r="B6" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
       </c>
       <c r="D6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>10002</v>
+        <v>1800</v>
       </c>
       <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>10003</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>10004</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>10005</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>10006</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>10007</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>10008</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>10009</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>10010</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>10011</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>10012</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4">
+        <v>12</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>10013</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>10014</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>14</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>10015</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>15</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>10016</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>16</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>10017</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>17</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>10018</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>18</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>10019</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>19</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>10020</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4">
+        <v>20</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>10021</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4">
+        <v>21</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>10022</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4">
+        <v>22</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>10023</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4">
+        <v>23</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>10024</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4">
+        <v>24</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>10025</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
+        <v>25</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>10026</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4">
+        <v>26</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>10027</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4">
+        <v>27</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>10028</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4">
+        <v>28</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>10029</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4">
+        <v>29</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>10030</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4">
+        <v>30</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>10031</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4">
+        <v>31</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>10032</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4">
+        <v>32</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>10033</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4">
+        <v>33</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>10034</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1</v>
+      </c>
+      <c r="C38" s="4">
+        <v>34</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>10035</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4">
+        <v>35</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>10036</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4">
+        <v>36</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>10037</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4">
+        <v>37</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>10038</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1</v>
+      </c>
+      <c r="C42" s="4">
+        <v>38</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>10039</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1</v>
+      </c>
+      <c r="C43" s="4">
+        <v>39</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>10040</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4">
+        <v>40</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>10041</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4">
+        <v>41</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>10042</v>
+      </c>
+      <c r="B46" s="4">
+        <v>1</v>
+      </c>
+      <c r="C46" s="4">
+        <v>42</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>10043</v>
+      </c>
+      <c r="B47" s="4">
+        <v>1</v>
+      </c>
+      <c r="C47" s="4">
+        <v>43</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>10044</v>
+      </c>
+      <c r="B48" s="4">
+        <v>1</v>
+      </c>
+      <c r="C48" s="4">
+        <v>44</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>10045</v>
+      </c>
+      <c r="B49" s="4">
+        <v>1</v>
+      </c>
+      <c r="C49" s="4">
+        <v>45</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>10046</v>
+      </c>
+      <c r="B50" s="4">
+        <v>1</v>
+      </c>
+      <c r="C50" s="4">
+        <v>46</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>10047</v>
+      </c>
+      <c r="B51" s="4">
+        <v>1</v>
+      </c>
+      <c r="C51" s="4">
+        <v>47</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>10048</v>
+      </c>
+      <c r="B52" s="4">
+        <v>1</v>
+      </c>
+      <c r="C52" s="4">
+        <v>48</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>10049</v>
+      </c>
+      <c r="B53" s="4">
+        <v>1</v>
+      </c>
+      <c r="C53" s="4">
+        <v>49</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>10050</v>
+      </c>
+      <c r="B54" s="4">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4">
+        <v>50</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>10051</v>
+      </c>
+      <c r="B55" s="4">
+        <v>1</v>
+      </c>
+      <c r="C55" s="4">
+        <v>51</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>10052</v>
+      </c>
+      <c r="B56" s="4">
+        <v>1</v>
+      </c>
+      <c r="C56" s="4">
+        <v>52</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>10053</v>
+      </c>
+      <c r="B57" s="4">
+        <v>1</v>
+      </c>
+      <c r="C57" s="4">
+        <v>53</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>10054</v>
+      </c>
+      <c r="B58" s="4">
+        <v>1</v>
+      </c>
+      <c r="C58" s="4">
+        <v>54</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>10055</v>
+      </c>
+      <c r="B59" s="4">
+        <v>1</v>
+      </c>
+      <c r="C59" s="4">
+        <v>55</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>10056</v>
+      </c>
+      <c r="B60" s="4">
+        <v>1</v>
+      </c>
+      <c r="C60" s="4">
+        <v>56</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+      <c r="E60" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>10057</v>
+      </c>
+      <c r="B61" s="4">
+        <v>1</v>
+      </c>
+      <c r="C61" s="4">
+        <v>57</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>10058</v>
+      </c>
+      <c r="B62" s="4">
+        <v>1</v>
+      </c>
+      <c r="C62" s="4">
+        <v>58</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0</v>
+      </c>
+      <c r="E62" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <v>10059</v>
+      </c>
+      <c r="B63" s="4">
+        <v>1</v>
+      </c>
+      <c r="C63" s="4">
+        <v>59</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+      <c r="E63" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <v>10060</v>
+      </c>
+      <c r="B64" s="4">
+        <v>1</v>
+      </c>
+      <c r="C64" s="4">
+        <v>60</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+      <c r="E64" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <v>10061</v>
+      </c>
+      <c r="B65" s="4">
+        <v>1</v>
+      </c>
+      <c r="C65" s="4">
+        <v>61</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>10062</v>
+      </c>
+      <c r="B66" s="4">
+        <v>1</v>
+      </c>
+      <c r="C66" s="4">
+        <v>62</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+      <c r="E66" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>10063</v>
+      </c>
+      <c r="B67" s="4">
+        <v>1</v>
+      </c>
+      <c r="C67" s="4">
+        <v>63</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+      <c r="E67" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>10064</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1</v>
+      </c>
+      <c r="C68" s="4">
+        <v>64</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+      <c r="E68" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>10065</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1</v>
+      </c>
+      <c r="C69" s="4">
+        <v>65</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0</v>
+      </c>
+      <c r="E69" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>10066</v>
+      </c>
+      <c r="B70" s="4">
+        <v>1</v>
+      </c>
+      <c r="C70" s="4">
+        <v>66</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0</v>
+      </c>
+      <c r="E70" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>10067</v>
+      </c>
+      <c r="B71" s="4">
+        <v>1</v>
+      </c>
+      <c r="C71" s="4">
+        <v>67</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0</v>
+      </c>
+      <c r="E71" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>10068</v>
+      </c>
+      <c r="B72" s="4">
+        <v>1</v>
+      </c>
+      <c r="C72" s="4">
+        <v>68</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <v>10069</v>
+      </c>
+      <c r="B73" s="4">
+        <v>1</v>
+      </c>
+      <c r="C73" s="4">
+        <v>69</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
+      <c r="E73" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <v>10070</v>
+      </c>
+      <c r="B74" s="4">
+        <v>1</v>
+      </c>
+      <c r="C74" s="4">
+        <v>70</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
+        <v>10071</v>
+      </c>
+      <c r="B75" s="4">
+        <v>1</v>
+      </c>
+      <c r="C75" s="4">
+        <v>71</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0</v>
+      </c>
+      <c r="E75" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F75" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
+        <v>10072</v>
+      </c>
+      <c r="B76" s="4">
+        <v>1</v>
+      </c>
+      <c r="C76" s="4">
+        <v>72</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0</v>
+      </c>
+      <c r="E76" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
+        <v>10073</v>
+      </c>
+      <c r="B77" s="4">
+        <v>1</v>
+      </c>
+      <c r="C77" s="4">
+        <v>73</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0</v>
+      </c>
+      <c r="E77" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F77" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
+        <v>10074</v>
+      </c>
+      <c r="B78" s="4">
+        <v>1</v>
+      </c>
+      <c r="C78" s="4">
+        <v>74</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0</v>
+      </c>
+      <c r="E78" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
+        <v>10075</v>
+      </c>
+      <c r="B79" s="4">
+        <v>1</v>
+      </c>
+      <c r="C79" s="4">
+        <v>75</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0</v>
+      </c>
+      <c r="E79" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F79" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
+        <v>10076</v>
+      </c>
+      <c r="B80" s="4">
+        <v>1</v>
+      </c>
+      <c r="C80" s="4">
+        <v>76</v>
+      </c>
+      <c r="D80" s="4">
+        <v>0</v>
+      </c>
+      <c r="E80" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F80" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
+        <v>10077</v>
+      </c>
+      <c r="B81" s="4">
+        <v>1</v>
+      </c>
+      <c r="C81" s="4">
+        <v>77</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0</v>
+      </c>
+      <c r="E81" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F81" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
+        <v>10078</v>
+      </c>
+      <c r="B82" s="4">
+        <v>1</v>
+      </c>
+      <c r="C82" s="4">
+        <v>78</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0</v>
+      </c>
+      <c r="E82" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F82" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
+        <v>10079</v>
+      </c>
+      <c r="B83" s="4">
+        <v>1</v>
+      </c>
+      <c r="C83" s="4">
+        <v>79</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0</v>
+      </c>
+      <c r="E83" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F83" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
+        <v>10080</v>
+      </c>
+      <c r="B84" s="4">
+        <v>1</v>
+      </c>
+      <c r="C84" s="4">
+        <v>80</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0</v>
+      </c>
+      <c r="E84" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F84" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
+        <v>10081</v>
+      </c>
+      <c r="B85" s="4">
+        <v>1</v>
+      </c>
+      <c r="C85" s="4">
+        <v>81</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0</v>
+      </c>
+      <c r="E85" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F85" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
+        <v>10082</v>
+      </c>
+      <c r="B86" s="4">
+        <v>1</v>
+      </c>
+      <c r="C86" s="4">
+        <v>82</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0</v>
+      </c>
+      <c r="E86" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F86" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
+        <v>10083</v>
+      </c>
+      <c r="B87" s="4">
+        <v>1</v>
+      </c>
+      <c r="C87" s="4">
+        <v>83</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0</v>
+      </c>
+      <c r="E87" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F87" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
+        <v>10084</v>
+      </c>
+      <c r="B88" s="4">
+        <v>1</v>
+      </c>
+      <c r="C88" s="4">
+        <v>84</v>
+      </c>
+      <c r="D88" s="4">
+        <v>0</v>
+      </c>
+      <c r="E88" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F88" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
+        <v>10085</v>
+      </c>
+      <c r="B89" s="4">
+        <v>1</v>
+      </c>
+      <c r="C89" s="4">
+        <v>85</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0</v>
+      </c>
+      <c r="E89" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F89" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
+        <v>10086</v>
+      </c>
+      <c r="B90" s="4">
+        <v>1</v>
+      </c>
+      <c r="C90" s="4">
+        <v>86</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0</v>
+      </c>
+      <c r="E90" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F90" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
+        <v>10087</v>
+      </c>
+      <c r="B91" s="4">
+        <v>1</v>
+      </c>
+      <c r="C91" s="4">
+        <v>87</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0</v>
+      </c>
+      <c r="E91" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F91" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
+        <v>10088</v>
+      </c>
+      <c r="B92" s="4">
+        <v>1</v>
+      </c>
+      <c r="C92" s="4">
+        <v>88</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0</v>
+      </c>
+      <c r="E92" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F92" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
+        <v>10089</v>
+      </c>
+      <c r="B93" s="4">
+        <v>1</v>
+      </c>
+      <c r="C93" s="4">
+        <v>89</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0</v>
+      </c>
+      <c r="E93" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F93" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
+        <v>10090</v>
+      </c>
+      <c r="B94" s="4">
+        <v>1</v>
+      </c>
+      <c r="C94" s="4">
+        <v>90</v>
+      </c>
+      <c r="D94" s="4">
+        <v>0</v>
+      </c>
+      <c r="E94" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F94" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="4">
+        <v>10091</v>
+      </c>
+      <c r="B95" s="4">
+        <v>1</v>
+      </c>
+      <c r="C95" s="4">
+        <v>91</v>
+      </c>
+      <c r="D95" s="4">
+        <v>0</v>
+      </c>
+      <c r="E95" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F95" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="4">
+        <v>20001</v>
+      </c>
+      <c r="B96" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="36.75" customHeight="1"/>
-    <row r="8" spans="1:6" ht="36.75" customHeight="1"/>
-    <row r="9" spans="1:6" ht="36.75" customHeight="1"/>
-    <row r="10" spans="1:6" ht="36.75" customHeight="1"/>
-    <row r="11" spans="1:6" ht="36.75" customHeight="1"/>
-    <row r="12" spans="1:6" ht="36.75" customHeight="1"/>
-    <row r="13" spans="1:6" ht="36.75" customHeight="1"/>
-    <row r="14" spans="1:6" ht="36.75" customHeight="1"/>
-    <row r="15" spans="1:6" ht="36.75" customHeight="1"/>
-    <row r="16" spans="1:6" ht="36.75" customHeight="1"/>
-    <row r="17" ht="36.75" customHeight="1"/>
-    <row r="18" ht="36.75" customHeight="1"/>
-    <row r="19" ht="36.75" customHeight="1"/>
-    <row r="20" ht="36.75" customHeight="1"/>
-    <row r="21" ht="36.75" customHeight="1"/>
-    <row r="22" ht="36.75" customHeight="1"/>
-    <row r="23" ht="36.75" customHeight="1"/>
-    <row r="24" ht="36.75" customHeight="1"/>
-    <row r="25" ht="36.75" customHeight="1"/>
-    <row r="26" ht="36.75" customHeight="1"/>
-    <row r="27" ht="36.75" customHeight="1"/>
-    <row r="28" ht="36.75" customHeight="1"/>
-    <row r="29" ht="36.75" customHeight="1"/>
-    <row r="30" ht="36.75" customHeight="1"/>
-    <row r="31" ht="36.75" customHeight="1"/>
-    <row r="32" ht="36.75" customHeight="1"/>
-    <row r="33" ht="36.75" customHeight="1"/>
-    <row r="34" ht="36" customHeight="1"/>
-    <row r="35" ht="36.75" customHeight="1"/>
+      <c r="C96" s="6">
+        <v>1</v>
+      </c>
+      <c r="D96" s="4">
+        <v>0</v>
+      </c>
+      <c r="E96" s="4">
+        <v>2400</v>
+      </c>
+      <c r="F96" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
+        <v>20002</v>
+      </c>
+      <c r="B97" s="4">
+        <v>2</v>
+      </c>
+      <c r="C97" s="6">
+        <v>2</v>
+      </c>
+      <c r="D97" s="4">
+        <v>0</v>
+      </c>
+      <c r="E97" s="4">
+        <v>2400</v>
+      </c>
+      <c r="F97" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
+        <v>20003</v>
+      </c>
+      <c r="B98" s="4">
+        <v>2</v>
+      </c>
+      <c r="C98" s="6">
+        <v>3</v>
+      </c>
+      <c r="D98" s="4">
+        <v>0</v>
+      </c>
+      <c r="E98" s="4">
+        <v>2400</v>
+      </c>
+      <c r="F98" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
+        <v>20004</v>
+      </c>
+      <c r="B99" s="4">
+        <v>2</v>
+      </c>
+      <c r="C99" s="6">
+        <v>4</v>
+      </c>
+      <c r="D99" s="4">
+        <v>0</v>
+      </c>
+      <c r="E99" s="4">
+        <v>2400</v>
+      </c>
+      <c r="F99" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
+        <v>20005</v>
+      </c>
+      <c r="B100" s="4">
+        <v>2</v>
+      </c>
+      <c r="C100" s="6">
+        <v>5</v>
+      </c>
+      <c r="D100" s="4">
+        <v>0</v>
+      </c>
+      <c r="E100" s="4">
+        <v>2400</v>
+      </c>
+      <c r="F100" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A101" s="4">
+        <v>20006</v>
+      </c>
+      <c r="B101" s="4">
+        <v>2</v>
+      </c>
+      <c r="C101" s="6">
+        <v>6</v>
+      </c>
+      <c r="D101" s="4">
+        <v>0</v>
+      </c>
+      <c r="E101" s="4">
+        <v>2400</v>
+      </c>
+      <c r="F101" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A102" s="4">
+        <v>20007</v>
+      </c>
+      <c r="B102" s="4">
+        <v>2</v>
+      </c>
+      <c r="C102" s="6">
+        <v>7</v>
+      </c>
+      <c r="D102" s="4">
+        <v>0</v>
+      </c>
+      <c r="E102" s="4">
+        <v>2400</v>
+      </c>
+      <c r="F102" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A103" s="4">
+        <v>20008</v>
+      </c>
+      <c r="B103" s="4">
+        <v>2</v>
+      </c>
+      <c r="C103" s="6">
+        <v>8</v>
+      </c>
+      <c r="D103" s="4">
+        <v>0</v>
+      </c>
+      <c r="E103" s="4">
+        <v>2400</v>
+      </c>
+      <c r="F103" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A104" s="4">
+        <v>20009</v>
+      </c>
+      <c r="B104" s="4">
+        <v>2</v>
+      </c>
+      <c r="C104" s="6">
+        <v>9</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0</v>
+      </c>
+      <c r="E104" s="4">
+        <v>2400</v>
+      </c>
+      <c r="F104" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A105" s="4">
+        <v>20010</v>
+      </c>
+      <c r="B105" s="4">
+        <v>2</v>
+      </c>
+      <c r="C105" s="6">
+        <v>10</v>
+      </c>
+      <c r="D105" s="4">
+        <v>0</v>
+      </c>
+      <c r="E105" s="4">
+        <v>2400</v>
+      </c>
+      <c r="F105" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A106" s="4">
+        <v>20011</v>
+      </c>
+      <c r="B106" s="4">
+        <v>2</v>
+      </c>
+      <c r="C106" s="6">
+        <v>11</v>
+      </c>
+      <c r="D106" s="4">
+        <v>0</v>
+      </c>
+      <c r="E106" s="4">
+        <v>2400</v>
+      </c>
+      <c r="F106" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A107" s="4">
+        <v>20012</v>
+      </c>
+      <c r="B107" s="4">
+        <v>2</v>
+      </c>
+      <c r="C107" s="6">
+        <v>12</v>
+      </c>
+      <c r="D107" s="4">
+        <v>0</v>
+      </c>
+      <c r="E107" s="4">
+        <v>2400</v>
+      </c>
+      <c r="F107" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A108" s="4">
+        <v>20013</v>
+      </c>
+      <c r="B108" s="4">
+        <v>2</v>
+      </c>
+      <c r="C108" s="6">
+        <v>13</v>
+      </c>
+      <c r="D108" s="4">
+        <v>0</v>
+      </c>
+      <c r="E108" s="4">
+        <v>2400</v>
+      </c>
+      <c r="F108" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A109" s="4">
+        <v>20014</v>
+      </c>
+      <c r="B109" s="4">
+        <v>2</v>
+      </c>
+      <c r="C109" s="6">
+        <v>14</v>
+      </c>
+      <c r="D109" s="4">
+        <v>0</v>
+      </c>
+      <c r="E109" s="4">
+        <v>2400</v>
+      </c>
+      <c r="F109" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A110" s="4">
+        <v>20015</v>
+      </c>
+      <c r="B110" s="4">
+        <v>2</v>
+      </c>
+      <c r="C110" s="6">
+        <v>15</v>
+      </c>
+      <c r="D110" s="4">
+        <v>0</v>
+      </c>
+      <c r="E110" s="4">
+        <v>2400</v>
+      </c>
+      <c r="F110" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A111" s="4">
+        <v>20016</v>
+      </c>
+      <c r="B111" s="4">
+        <v>2</v>
+      </c>
+      <c r="C111" s="6">
+        <v>16</v>
+      </c>
+      <c r="D111" s="4">
+        <v>0</v>
+      </c>
+      <c r="E111" s="4">
+        <v>2400</v>
+      </c>
+      <c r="F111" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A112" s="4">
+        <v>30001</v>
+      </c>
+      <c r="B112" s="4">
+        <v>3</v>
+      </c>
+      <c r="C112" s="6">
+        <v>1</v>
+      </c>
+      <c r="D112" s="4">
+        <v>0</v>
+      </c>
+      <c r="E112" s="4">
+        <v>3600</v>
+      </c>
+      <c r="F112" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A113" s="4">
+        <v>30002</v>
+      </c>
+      <c r="B113" s="4">
+        <v>3</v>
+      </c>
+      <c r="C113" s="6">
+        <v>2</v>
+      </c>
+      <c r="D113" s="4">
+        <v>0</v>
+      </c>
+      <c r="E113" s="4">
+        <v>3600</v>
+      </c>
+      <c r="F113" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A114" s="4">
+        <v>30003</v>
+      </c>
+      <c r="B114" s="4">
+        <v>3</v>
+      </c>
+      <c r="C114" s="6">
+        <v>3</v>
+      </c>
+      <c r="D114" s="4">
+        <v>0</v>
+      </c>
+      <c r="E114" s="4">
+        <v>3600</v>
+      </c>
+      <c r="F114" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A115" s="4">
+        <v>30004</v>
+      </c>
+      <c r="B115" s="4">
+        <v>3</v>
+      </c>
+      <c r="C115" s="6">
+        <v>4</v>
+      </c>
+      <c r="D115" s="4">
+        <v>0</v>
+      </c>
+      <c r="E115" s="4">
+        <v>3600</v>
+      </c>
+      <c r="F115" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A116" s="4">
+        <v>40001</v>
+      </c>
+      <c r="B116" s="4">
+        <v>4</v>
+      </c>
+      <c r="C116" s="6">
+        <v>0</v>
+      </c>
+      <c r="D116" s="4">
+        <v>1</v>
+      </c>
+      <c r="E116" s="4">
+        <v>7200</v>
+      </c>
+      <c r="F116" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A117" s="4">
+        <v>50001</v>
+      </c>
+      <c r="B117" s="4">
+        <v>5</v>
+      </c>
+      <c r="C117" s="6">
+        <v>0</v>
+      </c>
+      <c r="D117" s="4">
+        <v>1</v>
+      </c>
+      <c r="E117" s="4">
+        <v>5</v>
+      </c>
+      <c r="F117" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A118" s="4">
+        <v>60001</v>
+      </c>
+      <c r="B118" s="4">
+        <v>6</v>
+      </c>
+      <c r="C118" s="6">
+        <v>0</v>
+      </c>
+      <c r="D118" s="4">
+        <v>1</v>
+      </c>
+      <c r="E118" s="4">
+        <v>1</v>
+      </c>
+      <c r="F118" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A119" s="4">
+        <v>60002</v>
+      </c>
+      <c r="B119" s="4">
+        <v>6</v>
+      </c>
+      <c r="C119" s="6">
+        <v>1</v>
+      </c>
+      <c r="D119" s="4">
+        <v>1</v>
+      </c>
+      <c r="E119" s="4">
+        <v>1</v>
+      </c>
+      <c r="F119" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A120" s="4">
+        <v>60003</v>
+      </c>
+      <c r="B120" s="4">
+        <v>6</v>
+      </c>
+      <c r="C120" s="6">
+        <v>2</v>
+      </c>
+      <c r="D120" s="4">
+        <v>1</v>
+      </c>
+      <c r="E120" s="4">
+        <v>1</v>
+      </c>
+      <c r="F120" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A121" s="4">
+        <v>60004</v>
+      </c>
+      <c r="B121" s="4">
+        <v>6</v>
+      </c>
+      <c r="C121" s="6">
+        <v>3</v>
+      </c>
+      <c r="D121" s="4">
+        <v>1</v>
+      </c>
+      <c r="E121" s="4">
+        <v>1</v>
+      </c>
+      <c r="F121" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A122" s="4">
+        <v>60005</v>
+      </c>
+      <c r="B122" s="4">
+        <v>6</v>
+      </c>
+      <c r="C122" s="6">
+        <v>4</v>
+      </c>
+      <c r="D122" s="4">
+        <v>1</v>
+      </c>
+      <c r="E122" s="4">
+        <v>1</v>
+      </c>
+      <c r="F122" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A123" s="4">
+        <v>70001</v>
+      </c>
+      <c r="B123" s="4">
+        <v>7</v>
+      </c>
+      <c r="C123" s="6">
+        <v>1</v>
+      </c>
+      <c r="D123" s="4">
+        <v>1</v>
+      </c>
+      <c r="E123" s="4">
+        <v>7200</v>
+      </c>
+      <c r="F123" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A124" s="4">
+        <v>70002</v>
+      </c>
+      <c r="B124" s="4">
+        <v>7</v>
+      </c>
+      <c r="C124" s="6">
+        <v>2</v>
+      </c>
+      <c r="D124" s="4">
+        <v>1</v>
+      </c>
+      <c r="E124" s="4">
+        <v>7200</v>
+      </c>
+      <c r="F124" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A125" s="4">
+        <v>70003</v>
+      </c>
+      <c r="B125" s="4">
+        <v>7</v>
+      </c>
+      <c r="C125" s="6">
+        <v>3</v>
+      </c>
+      <c r="D125" s="4">
+        <v>1</v>
+      </c>
+      <c r="E125" s="4">
+        <v>7200</v>
+      </c>
+      <c r="F125" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A126" s="4">
+        <v>70004</v>
+      </c>
+      <c r="B126" s="4">
+        <v>7</v>
+      </c>
+      <c r="C126" s="6">
+        <v>4</v>
+      </c>
+      <c r="D126" s="4">
+        <v>1</v>
+      </c>
+      <c r="E126" s="4">
+        <v>7200</v>
+      </c>
+      <c r="F126" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A127" s="4">
+        <v>70005</v>
+      </c>
+      <c r="B127" s="4">
+        <v>7</v>
+      </c>
+      <c r="C127" s="6">
+        <v>5</v>
+      </c>
+      <c r="D127" s="4">
+        <v>1</v>
+      </c>
+      <c r="E127" s="4">
+        <v>7200</v>
+      </c>
+      <c r="F127" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A128" s="4">
+        <v>70006</v>
+      </c>
+      <c r="B128" s="4">
+        <v>7</v>
+      </c>
+      <c r="C128" s="6">
+        <v>6</v>
+      </c>
+      <c r="D128" s="4">
+        <v>1</v>
+      </c>
+      <c r="E128" s="4">
+        <v>7200</v>
+      </c>
+      <c r="F128" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A129" s="4">
+        <v>70007</v>
+      </c>
+      <c r="B129" s="4">
+        <v>7</v>
+      </c>
+      <c r="C129" s="6">
+        <v>7</v>
+      </c>
+      <c r="D129" s="4">
+        <v>1</v>
+      </c>
+      <c r="E129" s="4">
+        <v>7200</v>
+      </c>
+      <c r="F129" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A130" s="4">
+        <v>70008</v>
+      </c>
+      <c r="B130" s="4">
+        <v>7</v>
+      </c>
+      <c r="C130" s="6">
+        <v>8</v>
+      </c>
+      <c r="D130" s="4">
+        <v>1</v>
+      </c>
+      <c r="E130" s="4">
+        <v>7200</v>
+      </c>
+      <c r="F130" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A131" s="4">
+        <v>70009</v>
+      </c>
+      <c r="B131" s="4">
+        <v>7</v>
+      </c>
+      <c r="C131" s="6">
+        <v>9</v>
+      </c>
+      <c r="D131" s="4">
+        <v>1</v>
+      </c>
+      <c r="E131" s="4">
+        <v>7200</v>
+      </c>
+      <c r="F131" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A132" s="4">
+        <v>70010</v>
+      </c>
+      <c r="B132" s="4">
+        <v>7</v>
+      </c>
+      <c r="C132" s="6">
+        <v>10</v>
+      </c>
+      <c r="D132" s="4">
+        <v>1</v>
+      </c>
+      <c r="E132" s="4">
+        <v>7200</v>
+      </c>
+      <c r="F132" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A133" s="4">
+        <v>70011</v>
+      </c>
+      <c r="B133" s="4">
+        <v>7</v>
+      </c>
+      <c r="C133" s="6">
+        <v>11</v>
+      </c>
+      <c r="D133" s="4">
+        <v>1</v>
+      </c>
+      <c r="E133" s="4">
+        <v>7200</v>
+      </c>
+      <c r="F133" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A134" s="4">
+        <v>70012</v>
+      </c>
+      <c r="B134" s="4">
+        <v>7</v>
+      </c>
+      <c r="C134" s="6">
+        <v>12</v>
+      </c>
+      <c r="D134" s="4">
+        <v>1</v>
+      </c>
+      <c r="E134" s="4">
+        <v>7200</v>
+      </c>
+      <c r="F134" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A135" s="4">
+        <v>70013</v>
+      </c>
+      <c r="B135" s="4">
+        <v>7</v>
+      </c>
+      <c r="C135" s="6">
+        <v>13</v>
+      </c>
+      <c r="D135" s="4">
+        <v>1</v>
+      </c>
+      <c r="E135" s="4">
+        <v>7200</v>
+      </c>
+      <c r="F135" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A136" s="4">
+        <v>70014</v>
+      </c>
+      <c r="B136" s="4">
+        <v>7</v>
+      </c>
+      <c r="C136" s="6">
+        <v>14</v>
+      </c>
+      <c r="D136" s="4">
+        <v>1</v>
+      </c>
+      <c r="E136" s="4">
+        <v>7200</v>
+      </c>
+      <c r="F136" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A137" s="4">
+        <v>80001</v>
+      </c>
+      <c r="B137" s="4">
+        <v>8</v>
+      </c>
+      <c r="C137" s="6">
+        <v>0</v>
+      </c>
+      <c r="D137" s="4">
+        <v>1</v>
+      </c>
+      <c r="E137" s="4">
+        <v>10</v>
+      </c>
+      <c r="F137" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A138" s="4">
+        <v>90001</v>
+      </c>
+      <c r="B138" s="4">
+        <v>9</v>
+      </c>
+      <c r="C138" s="6">
+        <v>0</v>
+      </c>
+      <c r="D138" s="4">
+        <v>1</v>
+      </c>
+      <c r="E138" s="4">
+        <v>10</v>
+      </c>
+      <c r="F138" s="4">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -960,26 +3926,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70" style="2" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="2"/>
     <col min="9" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1005,7 +3971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>

--- a/docs/excel/Share.xlsx
+++ b/docs/excel/Share.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
+    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Guide" sheetId="1" r:id="rId1"/>
+    <sheet name="Share" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TableName: "Guide" Package: "table" CSClassHeader: "[System.Serializable]"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ShareType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -690,6 +686,10 @@
       </rPr>
       <t>回忆录分享，当前当前关卡最后一个人倍数，每个事件分享一次</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableName: "Share" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1117,7 +1117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
@@ -1144,22 +1144,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1176,10 +1176,10 @@
         <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1189,22 +1189,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1227,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1250,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1319,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1342,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1365,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1388,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1411,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3929,8 +3929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3942,7 +3942,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/Share.xlsx
+++ b/docs/excel/Share.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204" activeTab="1"/>
+    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="Share" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -690,14 +690,42 @@
   </si>
   <si>
     <t>TableName: "Share" Package: "table" CSClassHeader: "[System.Serializable]"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘻嘻嘻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘿嘿嘿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享图片路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -1114,14 +1142,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G138"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.69921875" style="4" customWidth="1"/>
     <col min="2" max="2" width="95.8984375" style="4" customWidth="1"/>
@@ -1129,9 +1157,8 @@
     <col min="4" max="4" width="43.296875" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.69921875" style="4" customWidth="1"/>
     <col min="6" max="6" width="20.296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.59765625" style="4" customWidth="1"/>
     <col min="8" max="8" width="31.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="55.59765625" style="4" customWidth="1"/>
     <col min="10" max="10" width="23.296875" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="12.5" style="4" customWidth="1"/>
     <col min="13" max="13" width="12.796875" style="4" bestFit="1" customWidth="1"/>
@@ -1139,7 +1166,7 @@
     <col min="15" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1159,10 +1186,16 @@
         <v>29</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -1181,13 +1214,19 @@
       <c r="F2" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
@@ -1206,8 +1245,14 @@
       <c r="F4" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="21.75" customHeight="1">
       <c r="A5" s="4">
         <v>10001</v>
       </c>
@@ -1226,11 +1271,14 @@
       <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="21.75" customHeight="1">
       <c r="A6" s="4">
         <v>10002</v>
       </c>
@@ -1249,11 +1297,14 @@
       <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="21.75" customHeight="1">
       <c r="A7" s="4">
         <v>10003</v>
       </c>
@@ -1272,11 +1323,11 @@
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="21.75" customHeight="1">
       <c r="A8" s="4">
         <v>10004</v>
       </c>
@@ -1295,11 +1346,11 @@
       <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="21.75" customHeight="1">
       <c r="A9" s="4">
         <v>10005</v>
       </c>
@@ -1318,11 +1369,11 @@
       <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="21.75" customHeight="1">
       <c r="A10" s="4">
         <v>10006</v>
       </c>
@@ -1341,11 +1392,11 @@
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="21.75" customHeight="1">
       <c r="A11" s="4">
         <v>10007</v>
       </c>
@@ -1364,11 +1415,11 @@
       <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="21.75" customHeight="1">
       <c r="A12" s="4">
         <v>10008</v>
       </c>
@@ -1387,11 +1438,11 @@
       <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="21.75" customHeight="1">
       <c r="A13" s="4">
         <v>10009</v>
       </c>
@@ -1410,11 +1461,11 @@
       <c r="F13" s="4">
         <v>1</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="21.75" customHeight="1">
       <c r="A14" s="4">
         <v>10010</v>
       </c>
@@ -1434,7 +1485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="21.75" customHeight="1">
       <c r="A15" s="4">
         <v>10011</v>
       </c>
@@ -1454,7 +1505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="21.75" customHeight="1">
       <c r="A16" s="4">
         <v>10012</v>
       </c>
@@ -1474,7 +1525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="21.75" customHeight="1">
       <c r="A17" s="4">
         <v>10013</v>
       </c>
@@ -1494,7 +1545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="21.75" customHeight="1">
       <c r="A18" s="4">
         <v>10014</v>
       </c>
@@ -1514,7 +1565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="21.75" customHeight="1">
       <c r="A19" s="4">
         <v>10015</v>
       </c>
@@ -1534,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="21.75" customHeight="1">
       <c r="A20" s="4">
         <v>10016</v>
       </c>
@@ -1554,7 +1605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="21.75" customHeight="1">
       <c r="A21" s="4">
         <v>10017</v>
       </c>
@@ -1574,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="21.75" customHeight="1">
       <c r="A22" s="4">
         <v>10018</v>
       </c>
@@ -1594,7 +1645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="21.75" customHeight="1">
       <c r="A23" s="4">
         <v>10019</v>
       </c>
@@ -1614,7 +1665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="21.75" customHeight="1">
       <c r="A24" s="4">
         <v>10020</v>
       </c>
@@ -1634,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="21.75" customHeight="1">
       <c r="A25" s="4">
         <v>10021</v>
       </c>
@@ -1654,7 +1705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="21.75" customHeight="1">
       <c r="A26" s="4">
         <v>10022</v>
       </c>
@@ -1674,7 +1725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="21.75" customHeight="1">
       <c r="A27" s="4">
         <v>10023</v>
       </c>
@@ -1694,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="21.75" customHeight="1">
       <c r="A28" s="4">
         <v>10024</v>
       </c>
@@ -1714,7 +1765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="21.75" customHeight="1">
       <c r="A29" s="4">
         <v>10025</v>
       </c>
@@ -1734,7 +1785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="21.75" customHeight="1">
       <c r="A30" s="4">
         <v>10026</v>
       </c>
@@ -1754,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="21.75" customHeight="1">
       <c r="A31" s="4">
         <v>10027</v>
       </c>
@@ -1774,7 +1825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="21.75" customHeight="1">
       <c r="A32" s="4">
         <v>10028</v>
       </c>
@@ -1794,7 +1845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="21.75" customHeight="1">
       <c r="A33" s="4">
         <v>10029</v>
       </c>
@@ -1814,7 +1865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="21.75" customHeight="1">
       <c r="A34" s="4">
         <v>10030</v>
       </c>
@@ -1834,7 +1885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="21.75" customHeight="1">
       <c r="A35" s="4">
         <v>10031</v>
       </c>
@@ -1854,7 +1905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="21.75" customHeight="1">
       <c r="A36" s="4">
         <v>10032</v>
       </c>
@@ -1874,7 +1925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="21.75" customHeight="1">
       <c r="A37" s="4">
         <v>10033</v>
       </c>
@@ -1894,7 +1945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="21.75" customHeight="1">
       <c r="A38" s="4">
         <v>10034</v>
       </c>
@@ -1914,7 +1965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="21.75" customHeight="1">
       <c r="A39" s="4">
         <v>10035</v>
       </c>
@@ -1934,7 +1985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="21.75" customHeight="1">
       <c r="A40" s="4">
         <v>10036</v>
       </c>
@@ -1954,7 +2005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="21.75" customHeight="1">
       <c r="A41" s="4">
         <v>10037</v>
       </c>
@@ -1974,7 +2025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="21.75" customHeight="1">
       <c r="A42" s="4">
         <v>10038</v>
       </c>
@@ -1994,7 +2045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="21.75" customHeight="1">
       <c r="A43" s="4">
         <v>10039</v>
       </c>
@@ -2014,7 +2065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="21.75" customHeight="1">
       <c r="A44" s="4">
         <v>10040</v>
       </c>
@@ -2034,7 +2085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="21.75" customHeight="1">
       <c r="A45" s="4">
         <v>10041</v>
       </c>
@@ -2054,7 +2105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="21.75" customHeight="1">
       <c r="A46" s="4">
         <v>10042</v>
       </c>
@@ -2074,7 +2125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="21.75" customHeight="1">
       <c r="A47" s="4">
         <v>10043</v>
       </c>
@@ -2094,7 +2145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="21.75" customHeight="1">
       <c r="A48" s="4">
         <v>10044</v>
       </c>
@@ -2114,7 +2165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="21.75" customHeight="1">
       <c r="A49" s="4">
         <v>10045</v>
       </c>
@@ -2134,7 +2185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="21.75" customHeight="1">
       <c r="A50" s="4">
         <v>10046</v>
       </c>
@@ -2154,7 +2205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="21.75" customHeight="1">
       <c r="A51" s="4">
         <v>10047</v>
       </c>
@@ -2174,7 +2225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="21.75" customHeight="1">
       <c r="A52" s="4">
         <v>10048</v>
       </c>
@@ -2194,7 +2245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="21.75" customHeight="1">
       <c r="A53" s="4">
         <v>10049</v>
       </c>
@@ -2214,7 +2265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="21.75" customHeight="1">
       <c r="A54" s="4">
         <v>10050</v>
       </c>
@@ -2234,7 +2285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="21.75" customHeight="1">
       <c r="A55" s="4">
         <v>10051</v>
       </c>
@@ -2254,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="21.75" customHeight="1">
       <c r="A56" s="4">
         <v>10052</v>
       </c>
@@ -2274,7 +2325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="21.75" customHeight="1">
       <c r="A57" s="4">
         <v>10053</v>
       </c>
@@ -2294,7 +2345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="21.75" customHeight="1">
       <c r="A58" s="4">
         <v>10054</v>
       </c>
@@ -2314,7 +2365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="21.75" customHeight="1">
       <c r="A59" s="4">
         <v>10055</v>
       </c>
@@ -2334,7 +2385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="21.75" customHeight="1">
       <c r="A60" s="4">
         <v>10056</v>
       </c>
@@ -2354,7 +2405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="21.75" customHeight="1">
       <c r="A61" s="4">
         <v>10057</v>
       </c>
@@ -2374,7 +2425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="21.75" customHeight="1">
       <c r="A62" s="4">
         <v>10058</v>
       </c>
@@ -2394,7 +2445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="21.75" customHeight="1">
       <c r="A63" s="4">
         <v>10059</v>
       </c>
@@ -2414,7 +2465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="21.75" customHeight="1">
       <c r="A64" s="4">
         <v>10060</v>
       </c>
@@ -2434,7 +2485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="21.75" customHeight="1">
       <c r="A65" s="4">
         <v>10061</v>
       </c>
@@ -2454,7 +2505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="21.75" customHeight="1">
       <c r="A66" s="4">
         <v>10062</v>
       </c>
@@ -2474,7 +2525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="21.75" customHeight="1">
       <c r="A67" s="4">
         <v>10063</v>
       </c>
@@ -2494,7 +2545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="21.75" customHeight="1">
       <c r="A68" s="4">
         <v>10064</v>
       </c>
@@ -2514,7 +2565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="21.75" customHeight="1">
       <c r="A69" s="4">
         <v>10065</v>
       </c>
@@ -2534,7 +2585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="21.75" customHeight="1">
       <c r="A70" s="4">
         <v>10066</v>
       </c>
@@ -2554,7 +2605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="21.75" customHeight="1">
       <c r="A71" s="4">
         <v>10067</v>
       </c>
@@ -2574,7 +2625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="21.75" customHeight="1">
       <c r="A72" s="4">
         <v>10068</v>
       </c>
@@ -2594,7 +2645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="21.75" customHeight="1">
       <c r="A73" s="4">
         <v>10069</v>
       </c>
@@ -2614,7 +2665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="21.75" customHeight="1">
       <c r="A74" s="4">
         <v>10070</v>
       </c>
@@ -2634,7 +2685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="21.75" customHeight="1">
       <c r="A75" s="4">
         <v>10071</v>
       </c>
@@ -2654,7 +2705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="21.75" customHeight="1">
       <c r="A76" s="4">
         <v>10072</v>
       </c>
@@ -2674,7 +2725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="21.75" customHeight="1">
       <c r="A77" s="4">
         <v>10073</v>
       </c>
@@ -2694,7 +2745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="21.75" customHeight="1">
       <c r="A78" s="4">
         <v>10074</v>
       </c>
@@ -2714,7 +2765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="21.75" customHeight="1">
       <c r="A79" s="4">
         <v>10075</v>
       </c>
@@ -2734,7 +2785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="21.75" customHeight="1">
       <c r="A80" s="4">
         <v>10076</v>
       </c>
@@ -2754,7 +2805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="21.75" customHeight="1">
       <c r="A81" s="4">
         <v>10077</v>
       </c>
@@ -2774,7 +2825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="21.75" customHeight="1">
       <c r="A82" s="4">
         <v>10078</v>
       </c>
@@ -2794,7 +2845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="21.75" customHeight="1">
       <c r="A83" s="4">
         <v>10079</v>
       </c>
@@ -2814,7 +2865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="21.75" customHeight="1">
       <c r="A84" s="4">
         <v>10080</v>
       </c>
@@ -2834,7 +2885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="21.75" customHeight="1">
       <c r="A85" s="4">
         <v>10081</v>
       </c>
@@ -2854,7 +2905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="21.75" customHeight="1">
       <c r="A86" s="4">
         <v>10082</v>
       </c>
@@ -2874,7 +2925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="21.75" customHeight="1">
       <c r="A87" s="4">
         <v>10083</v>
       </c>
@@ -2894,7 +2945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="21.75" customHeight="1">
       <c r="A88" s="4">
         <v>10084</v>
       </c>
@@ -2914,7 +2965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="21.75" customHeight="1">
       <c r="A89" s="4">
         <v>10085</v>
       </c>
@@ -2934,7 +2985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="21.75" customHeight="1">
       <c r="A90" s="4">
         <v>10086</v>
       </c>
@@ -2954,7 +3005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="21.75" customHeight="1">
       <c r="A91" s="4">
         <v>10087</v>
       </c>
@@ -2974,7 +3025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="21.75" customHeight="1">
       <c r="A92" s="4">
         <v>10088</v>
       </c>
@@ -2994,7 +3045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="21.75" customHeight="1">
       <c r="A93" s="4">
         <v>10089</v>
       </c>
@@ -3014,7 +3065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="21.75" customHeight="1">
       <c r="A94" s="4">
         <v>10090</v>
       </c>
@@ -3034,7 +3085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="21.75" customHeight="1">
       <c r="A95" s="4">
         <v>10091</v>
       </c>
@@ -3054,7 +3105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="21.75" customHeight="1">
       <c r="A96" s="4">
         <v>20001</v>
       </c>
@@ -3074,7 +3125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="17.25">
       <c r="A97" s="4">
         <v>20002</v>
       </c>
@@ -3094,7 +3145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="17.25">
       <c r="A98" s="4">
         <v>20003</v>
       </c>
@@ -3114,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="17.25">
       <c r="A99" s="4">
         <v>20004</v>
       </c>
@@ -3134,7 +3185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="17.25">
       <c r="A100" s="4">
         <v>20005</v>
       </c>
@@ -3154,7 +3205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="17.25">
       <c r="A101" s="4">
         <v>20006</v>
       </c>
@@ -3174,7 +3225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="17.25">
       <c r="A102" s="4">
         <v>20007</v>
       </c>
@@ -3194,7 +3245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="17.25">
       <c r="A103" s="4">
         <v>20008</v>
       </c>
@@ -3214,7 +3265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="17.25">
       <c r="A104" s="4">
         <v>20009</v>
       </c>
@@ -3234,7 +3285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="17.25">
       <c r="A105" s="4">
         <v>20010</v>
       </c>
@@ -3254,7 +3305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="17.25">
       <c r="A106" s="4">
         <v>20011</v>
       </c>
@@ -3274,7 +3325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="17.25">
       <c r="A107" s="4">
         <v>20012</v>
       </c>
@@ -3294,7 +3345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="17.25">
       <c r="A108" s="4">
         <v>20013</v>
       </c>
@@ -3314,7 +3365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="17.25">
       <c r="A109" s="4">
         <v>20014</v>
       </c>
@@ -3334,7 +3385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="17.25">
       <c r="A110" s="4">
         <v>20015</v>
       </c>
@@ -3354,7 +3405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="17.25">
       <c r="A111" s="4">
         <v>20016</v>
       </c>
@@ -3374,7 +3425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="17.25">
       <c r="A112" s="4">
         <v>30001</v>
       </c>
@@ -3394,7 +3445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="17.25">
       <c r="A113" s="4">
         <v>30002</v>
       </c>
@@ -3414,7 +3465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="17.25">
       <c r="A114" s="4">
         <v>30003</v>
       </c>
@@ -3434,7 +3485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="17.25">
       <c r="A115" s="4">
         <v>30004</v>
       </c>
@@ -3454,7 +3505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="17.25">
       <c r="A116" s="4">
         <v>40001</v>
       </c>
@@ -3474,7 +3525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="17.25">
       <c r="A117" s="4">
         <v>50001</v>
       </c>
@@ -3494,7 +3545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="17.25">
       <c r="A118" s="4">
         <v>60001</v>
       </c>
@@ -3514,7 +3565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="17.25">
       <c r="A119" s="4">
         <v>60002</v>
       </c>
@@ -3534,7 +3585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="17.25">
       <c r="A120" s="4">
         <v>60003</v>
       </c>
@@ -3554,7 +3605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="17.25">
       <c r="A121" s="4">
         <v>60004</v>
       </c>
@@ -3574,7 +3625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="17.25">
       <c r="A122" s="4">
         <v>60005</v>
       </c>
@@ -3594,7 +3645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="17.25">
       <c r="A123" s="4">
         <v>70001</v>
       </c>
@@ -3614,7 +3665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="17.25">
       <c r="A124" s="4">
         <v>70002</v>
       </c>
@@ -3634,7 +3685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="17.25">
       <c r="A125" s="4">
         <v>70003</v>
       </c>
@@ -3654,7 +3705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="17.25">
       <c r="A126" s="4">
         <v>70004</v>
       </c>
@@ -3674,7 +3725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="17.25">
       <c r="A127" s="4">
         <v>70005</v>
       </c>
@@ -3694,7 +3745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" ht="17.25">
       <c r="A128" s="4">
         <v>70006</v>
       </c>
@@ -3714,7 +3765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" ht="17.25">
       <c r="A129" s="4">
         <v>70007</v>
       </c>
@@ -3734,7 +3785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="17.25">
       <c r="A130" s="4">
         <v>70008</v>
       </c>
@@ -3754,7 +3805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="17.25">
       <c r="A131" s="4">
         <v>70009</v>
       </c>
@@ -3774,7 +3825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="17.25">
       <c r="A132" s="4">
         <v>70010</v>
       </c>
@@ -3794,7 +3845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="17.25">
       <c r="A133" s="4">
         <v>70011</v>
       </c>
@@ -3814,7 +3865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="17.25">
       <c r="A134" s="4">
         <v>70012</v>
       </c>
@@ -3834,7 +3885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="17.25">
       <c r="A135" s="4">
         <v>70013</v>
       </c>
@@ -3854,7 +3905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="17.25">
       <c r="A136" s="4">
         <v>70014</v>
       </c>
@@ -3874,7 +3925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" ht="17.25">
       <c r="A137" s="4">
         <v>80001</v>
       </c>
@@ -3894,7 +3945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" ht="17.25">
       <c r="A138" s="4">
         <v>90001</v>
       </c>
@@ -3926,26 +3977,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="70" style="2" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="2"/>
     <col min="9" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -3971,7 +4022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>

--- a/docs/excel/Share.xlsx
+++ b/docs/excel/Share.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="76">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -705,27 +705,180 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>嘻嘻嘻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘿嘿嘿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Image</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>分享图片路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇上日理万机，需要多补充能量。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>朕又解锁了新事件，好开心。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>居然敢动朕的东西，你动了朕的心啊。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>朕今天吃点什么好呢？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇上快点啊，还在等什么。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>给朕转过去，屁股撅起来。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>朕今天有点累了，要好好休息休息。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>朕的心好痛，你卡在朕心上了。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>朕今天翻谁的什么牌子呢？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的后宫又合出了新形象，快来看看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一入后宫深似海，我在这一关等你呦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后宫开启了新章节，赶紧跟我一起来玩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>后宫纪，给你不一样的后宫。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/share/1</t>
+  </si>
+  <si>
+    <t>images/share/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/share/2</t>
+  </si>
+  <si>
+    <t>images/share/11</t>
+  </si>
+  <si>
+    <t>images/share/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/share/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/share/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/share/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/share/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/share/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/share/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/share/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/share/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/share/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/share/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/share/13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -752,6 +905,13 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -785,7 +945,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,6 +963,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1142,21 +1305,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.69921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="95.8984375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.296875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.59765625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.296875" style="4" customWidth="1"/>
     <col min="6" max="6" width="20.296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5" customWidth="1"/>
     <col min="8" max="8" width="31.5" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="55.59765625" style="4" customWidth="1"/>
     <col min="10" max="10" width="23.296875" style="4" bestFit="1" customWidth="1"/>
@@ -1166,7 +1330,7 @@
     <col min="15" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1189,13 +1353,13 @@
         <v>42</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -1221,12 +1385,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
@@ -1249,10 +1413,10 @@
         <v>44</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="21.75" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>10001</v>
       </c>
@@ -1271,14 +1435,17 @@
       <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>45</v>
+      <c r="G5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="21.75" customHeight="1">
+    <row r="6" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>10002</v>
       </c>
@@ -1297,14 +1464,17 @@
       <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>46</v>
+      <c r="G6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="21.75" customHeight="1">
+    <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>10003</v>
       </c>
@@ -1323,11 +1493,17 @@
       <c r="F7" s="4">
         <v>1</v>
       </c>
+      <c r="G7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="I7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="21.75" customHeight="1">
+    <row r="8" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>10004</v>
       </c>
@@ -1346,11 +1522,17 @@
       <c r="F8" s="4">
         <v>1</v>
       </c>
+      <c r="G8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="I8" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="21.75" customHeight="1">
+    <row r="9" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>10005</v>
       </c>
@@ -1369,11 +1551,17 @@
       <c r="F9" s="4">
         <v>1</v>
       </c>
+      <c r="G9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="I9" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="21.75" customHeight="1">
+    <row r="10" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>10006</v>
       </c>
@@ -1392,11 +1580,17 @@
       <c r="F10" s="4">
         <v>1</v>
       </c>
+      <c r="G10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="I10" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21.75" customHeight="1">
+    <row r="11" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10007</v>
       </c>
@@ -1415,11 +1609,17 @@
       <c r="F11" s="4">
         <v>1</v>
       </c>
+      <c r="G11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="I11" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="21.75" customHeight="1">
+    <row r="12" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10008</v>
       </c>
@@ -1438,11 +1638,17 @@
       <c r="F12" s="4">
         <v>1</v>
       </c>
+      <c r="G12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="I12" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="21.75" customHeight="1">
+    <row r="13" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10009</v>
       </c>
@@ -1461,11 +1667,17 @@
       <c r="F13" s="4">
         <v>1</v>
       </c>
+      <c r="G13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="I13" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="21.75" customHeight="1">
+    <row r="14" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>10010</v>
       </c>
@@ -1484,8 +1696,14 @@
       <c r="F14" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="21.75" customHeight="1">
+      <c r="G14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10011</v>
       </c>
@@ -1504,8 +1722,14 @@
       <c r="F15" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="21.75" customHeight="1">
+      <c r="G15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>10012</v>
       </c>
@@ -1524,8 +1748,14 @@
       <c r="F16" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>10013</v>
       </c>
@@ -1544,8 +1774,14 @@
       <c r="F17" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>10014</v>
       </c>
@@ -1564,8 +1800,14 @@
       <c r="F18" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>10015</v>
       </c>
@@ -1584,8 +1826,14 @@
       <c r="F19" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>10016</v>
       </c>
@@ -1604,8 +1852,14 @@
       <c r="F20" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>10017</v>
       </c>
@@ -1624,8 +1878,14 @@
       <c r="F21" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>10018</v>
       </c>
@@ -1644,8 +1904,14 @@
       <c r="F22" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>10019</v>
       </c>
@@ -1664,8 +1930,14 @@
       <c r="F23" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>10020</v>
       </c>
@@ -1684,8 +1956,14 @@
       <c r="F24" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>10021</v>
       </c>
@@ -1704,8 +1982,14 @@
       <c r="F25" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>10022</v>
       </c>
@@ -1724,8 +2008,14 @@
       <c r="F26" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G26" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>10023</v>
       </c>
@@ -1744,8 +2034,14 @@
       <c r="F27" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G27" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>10024</v>
       </c>
@@ -1764,8 +2060,14 @@
       <c r="F28" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G28" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>10025</v>
       </c>
@@ -1784,8 +2086,14 @@
       <c r="F29" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G29" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>10026</v>
       </c>
@@ -1804,8 +2112,14 @@
       <c r="F30" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G30" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>10027</v>
       </c>
@@ -1824,8 +2138,14 @@
       <c r="F31" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G31" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>10028</v>
       </c>
@@ -1844,8 +2164,14 @@
       <c r="F32" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G32" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>10029</v>
       </c>
@@ -1864,8 +2190,14 @@
       <c r="F33" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G33" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>10030</v>
       </c>
@@ -1884,8 +2216,14 @@
       <c r="F34" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G34" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>10031</v>
       </c>
@@ -1904,8 +2242,14 @@
       <c r="F35" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G35" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>10032</v>
       </c>
@@ -1924,8 +2268,14 @@
       <c r="F36" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G36" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>10033</v>
       </c>
@@ -1944,8 +2294,14 @@
       <c r="F37" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G37" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>10034</v>
       </c>
@@ -1964,8 +2320,14 @@
       <c r="F38" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G38" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>10035</v>
       </c>
@@ -1984,8 +2346,14 @@
       <c r="F39" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G39" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>10036</v>
       </c>
@@ -2004,8 +2372,14 @@
       <c r="F40" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G40" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>10037</v>
       </c>
@@ -2024,8 +2398,14 @@
       <c r="F41" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G41" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>10038</v>
       </c>
@@ -2044,8 +2424,14 @@
       <c r="F42" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G42" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>10039</v>
       </c>
@@ -2064,8 +2450,14 @@
       <c r="F43" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G43" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>10040</v>
       </c>
@@ -2084,8 +2476,14 @@
       <c r="F44" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G44" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>10041</v>
       </c>
@@ -2104,8 +2502,14 @@
       <c r="F45" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G45" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>10042</v>
       </c>
@@ -2124,8 +2528,14 @@
       <c r="F46" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G46" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>10043</v>
       </c>
@@ -2144,8 +2554,14 @@
       <c r="F47" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G47" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>10044</v>
       </c>
@@ -2164,8 +2580,14 @@
       <c r="F48" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G48" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>10045</v>
       </c>
@@ -2184,8 +2606,14 @@
       <c r="F49" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G49" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>10046</v>
       </c>
@@ -2204,8 +2632,14 @@
       <c r="F50" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G50" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>10047</v>
       </c>
@@ -2224,8 +2658,14 @@
       <c r="F51" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G51" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>10048</v>
       </c>
@@ -2244,8 +2684,14 @@
       <c r="F52" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G52" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>10049</v>
       </c>
@@ -2264,8 +2710,14 @@
       <c r="F53" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G53" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>10050</v>
       </c>
@@ -2284,8 +2736,14 @@
       <c r="F54" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G54" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>10051</v>
       </c>
@@ -2304,8 +2762,14 @@
       <c r="F55" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G55" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>10052</v>
       </c>
@@ -2324,8 +2788,14 @@
       <c r="F56" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G56" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>10053</v>
       </c>
@@ -2344,8 +2814,14 @@
       <c r="F57" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G57" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>10054</v>
       </c>
@@ -2364,8 +2840,14 @@
       <c r="F58" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G58" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>10055</v>
       </c>
@@ -2384,8 +2866,14 @@
       <c r="F59" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G59" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>10056</v>
       </c>
@@ -2404,8 +2892,14 @@
       <c r="F60" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G60" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>10057</v>
       </c>
@@ -2424,8 +2918,14 @@
       <c r="F61" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G61" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>10058</v>
       </c>
@@ -2444,8 +2944,14 @@
       <c r="F62" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G62" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>10059</v>
       </c>
@@ -2464,8 +2970,14 @@
       <c r="F63" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G63" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>10060</v>
       </c>
@@ -2484,8 +2996,14 @@
       <c r="F64" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G64" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>10061</v>
       </c>
@@ -2504,8 +3022,14 @@
       <c r="F65" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G65" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>10062</v>
       </c>
@@ -2524,8 +3048,14 @@
       <c r="F66" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G66" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>10063</v>
       </c>
@@ -2544,8 +3074,14 @@
       <c r="F67" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G67" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>10064</v>
       </c>
@@ -2564,8 +3100,14 @@
       <c r="F68" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G68" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>10065</v>
       </c>
@@ -2584,8 +3126,14 @@
       <c r="F69" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G69" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>10066</v>
       </c>
@@ -2604,8 +3152,14 @@
       <c r="F70" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G70" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>10067</v>
       </c>
@@ -2624,8 +3178,14 @@
       <c r="F71" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G71" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>10068</v>
       </c>
@@ -2644,8 +3204,14 @@
       <c r="F72" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G72" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>10069</v>
       </c>
@@ -2664,8 +3230,14 @@
       <c r="F73" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G73" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>10070</v>
       </c>
@@ -2684,8 +3256,14 @@
       <c r="F74" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G74" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>10071</v>
       </c>
@@ -2704,8 +3282,14 @@
       <c r="F75" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G75" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>10072</v>
       </c>
@@ -2724,8 +3308,14 @@
       <c r="F76" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G76" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>10073</v>
       </c>
@@ -2744,8 +3334,14 @@
       <c r="F77" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G77" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>10074</v>
       </c>
@@ -2764,8 +3360,14 @@
       <c r="F78" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G78" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>10075</v>
       </c>
@@ -2784,8 +3386,14 @@
       <c r="F79" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G79" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>10076</v>
       </c>
@@ -2804,8 +3412,14 @@
       <c r="F80" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G80" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>10077</v>
       </c>
@@ -2824,8 +3438,14 @@
       <c r="F81" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G81" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>10078</v>
       </c>
@@ -2844,8 +3464,14 @@
       <c r="F82" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G82" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>10079</v>
       </c>
@@ -2864,8 +3490,14 @@
       <c r="F83" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G83" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>10080</v>
       </c>
@@ -2884,8 +3516,14 @@
       <c r="F84" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G84" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>10081</v>
       </c>
@@ -2904,8 +3542,14 @@
       <c r="F85" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G85" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>10082</v>
       </c>
@@ -2924,8 +3568,14 @@
       <c r="F86" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G86" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>10083</v>
       </c>
@@ -2944,8 +3594,14 @@
       <c r="F87" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G87" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>10084</v>
       </c>
@@ -2964,8 +3620,14 @@
       <c r="F88" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G88" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>10085</v>
       </c>
@@ -2984,8 +3646,14 @@
       <c r="F89" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G89" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>10086</v>
       </c>
@@ -3004,8 +3672,14 @@
       <c r="F90" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G90" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>10087</v>
       </c>
@@ -3024,8 +3698,14 @@
       <c r="F91" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G91" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>10088</v>
       </c>
@@ -3044,8 +3724,14 @@
       <c r="F92" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G92" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>10089</v>
       </c>
@@ -3064,8 +3750,14 @@
       <c r="F93" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G93" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>10090</v>
       </c>
@@ -3084,8 +3776,14 @@
       <c r="F94" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G94" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>10091</v>
       </c>
@@ -3104,8 +3802,14 @@
       <c r="F95" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G95" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>20001</v>
       </c>
@@ -3124,8 +3828,14 @@
       <c r="F96" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="17.25">
+      <c r="G96" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>20002</v>
       </c>
@@ -3144,8 +3854,14 @@
       <c r="F97" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="17.25">
+      <c r="G97" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>20003</v>
       </c>
@@ -3164,8 +3880,14 @@
       <c r="F98" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="17.25">
+      <c r="G98" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>20004</v>
       </c>
@@ -3184,8 +3906,14 @@
       <c r="F99" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="17.25">
+      <c r="G99" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>20005</v>
       </c>
@@ -3204,8 +3932,14 @@
       <c r="F100" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="17.25">
+      <c r="G100" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>20006</v>
       </c>
@@ -3224,8 +3958,14 @@
       <c r="F101" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="17.25">
+      <c r="G101" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>20007</v>
       </c>
@@ -3244,8 +3984,14 @@
       <c r="F102" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="17.25">
+      <c r="G102" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>20008</v>
       </c>
@@ -3264,8 +4010,14 @@
       <c r="F103" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" ht="17.25">
+      <c r="G103" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>20009</v>
       </c>
@@ -3284,8 +4036,14 @@
       <c r="F104" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="17.25">
+      <c r="G104" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>20010</v>
       </c>
@@ -3304,8 +4062,14 @@
       <c r="F105" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="17.25">
+      <c r="G105" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>20011</v>
       </c>
@@ -3324,8 +4088,14 @@
       <c r="F106" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" ht="17.25">
+      <c r="G106" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>20012</v>
       </c>
@@ -3344,8 +4114,14 @@
       <c r="F107" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="17.25">
+      <c r="G107" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>20013</v>
       </c>
@@ -3364,8 +4140,14 @@
       <c r="F108" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" ht="17.25">
+      <c r="G108" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>20014</v>
       </c>
@@ -3384,8 +4166,14 @@
       <c r="F109" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" ht="17.25">
+      <c r="G109" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>20015</v>
       </c>
@@ -3404,8 +4192,14 @@
       <c r="F110" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" ht="17.25">
+      <c r="G110" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>20016</v>
       </c>
@@ -3424,8 +4218,14 @@
       <c r="F111" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" ht="17.25">
+      <c r="G111" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>30001</v>
       </c>
@@ -3444,8 +4244,14 @@
       <c r="F112" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" ht="17.25">
+      <c r="G112" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>30002</v>
       </c>
@@ -3464,8 +4270,14 @@
       <c r="F113" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" ht="17.25">
+      <c r="G113" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>30003</v>
       </c>
@@ -3484,8 +4296,14 @@
       <c r="F114" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" ht="17.25">
+      <c r="G114" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>30004</v>
       </c>
@@ -3504,8 +4322,14 @@
       <c r="F115" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" ht="17.25">
+      <c r="G115" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A116" s="4">
         <v>40001</v>
       </c>
@@ -3524,8 +4348,14 @@
       <c r="F116" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" ht="17.25">
+      <c r="G116" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>50001</v>
       </c>
@@ -3544,8 +4374,14 @@
       <c r="F117" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" ht="17.25">
+      <c r="G117" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>60001</v>
       </c>
@@ -3564,8 +4400,14 @@
       <c r="F118" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" ht="17.25">
+      <c r="G118" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>60002</v>
       </c>
@@ -3584,8 +4426,14 @@
       <c r="F119" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" ht="17.25">
+      <c r="G119" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>60003</v>
       </c>
@@ -3604,8 +4452,14 @@
       <c r="F120" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" ht="17.25">
+      <c r="G120" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>60004</v>
       </c>
@@ -3624,8 +4478,14 @@
       <c r="F121" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" ht="17.25">
+      <c r="G121" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>60005</v>
       </c>
@@ -3644,8 +4504,14 @@
       <c r="F122" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" ht="17.25">
+      <c r="G122" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>70001</v>
       </c>
@@ -3664,8 +4530,14 @@
       <c r="F123" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" ht="17.25">
+      <c r="G123" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>70002</v>
       </c>
@@ -3684,8 +4556,14 @@
       <c r="F124" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" ht="17.25">
+      <c r="G124" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>70003</v>
       </c>
@@ -3704,8 +4582,14 @@
       <c r="F125" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" ht="17.25">
+      <c r="G125" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>70004</v>
       </c>
@@ -3724,8 +4608,14 @@
       <c r="F126" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" ht="17.25">
+      <c r="G126" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>70005</v>
       </c>
@@ -3744,8 +4634,14 @@
       <c r="F127" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" ht="17.25">
+      <c r="G127" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>70006</v>
       </c>
@@ -3764,8 +4660,14 @@
       <c r="F128" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="17.25">
+      <c r="G128" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>70007</v>
       </c>
@@ -3784,8 +4686,14 @@
       <c r="F129" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="17.25">
+      <c r="G129" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>70008</v>
       </c>
@@ -3804,8 +4712,14 @@
       <c r="F130" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" ht="17.25">
+      <c r="G130" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>70009</v>
       </c>
@@ -3824,8 +4738,14 @@
       <c r="F131" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" ht="17.25">
+      <c r="G131" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>70010</v>
       </c>
@@ -3844,8 +4764,14 @@
       <c r="F132" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="17.25">
+      <c r="G132" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>70011</v>
       </c>
@@ -3864,8 +4790,14 @@
       <c r="F133" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="17.25">
+      <c r="G133" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>70012</v>
       </c>
@@ -3884,8 +4816,14 @@
       <c r="F134" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" ht="17.25">
+      <c r="G134" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>70013</v>
       </c>
@@ -3904,8 +4842,14 @@
       <c r="F135" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" ht="17.25">
+      <c r="G135" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>70014</v>
       </c>
@@ -3924,8 +4868,14 @@
       <c r="F136" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" ht="17.25">
+      <c r="G136" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>80001</v>
       </c>
@@ -3944,8 +4894,14 @@
       <c r="F137" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" ht="17.25">
+      <c r="G137" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>90001</v>
       </c>
@@ -3963,6 +4919,12 @@
       </c>
       <c r="F138" s="4">
         <v>3</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3977,26 +4939,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70" style="2" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="2"/>
     <col min="9" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -4022,7 +4984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>

--- a/docs/excel/Share.xlsx
+++ b/docs/excel/Share.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="77">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -813,64 +813,68 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>images/share/1</t>
-  </si>
-  <si>
-    <t>images/share/1</t>
+    <t>images/share/1.jpg</t>
+  </si>
+  <si>
+    <t>images/share/1.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>images/share/2</t>
-  </si>
-  <si>
-    <t>images/share/11</t>
-  </si>
-  <si>
-    <t>images/share/2</t>
+    <t>images/share/1.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>images/share/3</t>
+    <t>images/share/2.jpg</t>
+  </si>
+  <si>
+    <t>images/share/2.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>images/share/4</t>
+    <t>images/share/3.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>images/share/5</t>
+    <t>images/share/4.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>images/share/6</t>
+    <t>images/share/5.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>images/share/7</t>
+    <t>images/share/6.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>images/share/8</t>
+    <t>images/share/7.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>images/share/9</t>
+    <t>images/share/8.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>images/share/10</t>
+    <t>images/share/9.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>images/share/11</t>
+    <t>images/share/10.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>images/share/12</t>
+    <t>images/share/11.jpg</t>
+  </si>
+  <si>
+    <t>images/share/11.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>images/share/13</t>
+    <t>images/share/12.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/share/13.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1308,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H139" sqref="H139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1497,7 +1501,7 @@
         <v>56</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>34</v>
@@ -1526,7 +1530,7 @@
         <v>56</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>39</v>
@@ -1555,7 +1559,7 @@
         <v>56</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>35</v>
@@ -1584,7 +1588,7 @@
         <v>56</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>36</v>
@@ -1613,7 +1617,7 @@
         <v>56</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>40</v>
@@ -1642,7 +1646,7 @@
         <v>56</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>38</v>
@@ -1671,7 +1675,7 @@
         <v>56</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>37</v>
@@ -1700,7 +1704,7 @@
         <v>56</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1726,7 +1730,7 @@
         <v>56</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1752,7 +1756,7 @@
         <v>56</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1778,7 +1782,7 @@
         <v>56</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1804,7 +1808,7 @@
         <v>56</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3884,7 +3888,7 @@
         <v>57</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -3910,7 +3914,7 @@
         <v>57</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -3936,7 +3940,7 @@
         <v>57</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -3962,7 +3966,7 @@
         <v>57</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -3988,7 +3992,7 @@
         <v>57</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -4014,7 +4018,7 @@
         <v>57</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -4040,7 +4044,7 @@
         <v>57</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -4066,7 +4070,7 @@
         <v>57</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -4092,7 +4096,7 @@
         <v>57</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -4118,7 +4122,7 @@
         <v>57</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -4144,7 +4148,7 @@
         <v>57</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -4170,7 +4174,7 @@
         <v>57</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -4196,7 +4200,7 @@
         <v>57</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -4222,7 +4226,7 @@
         <v>57</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -4534,7 +4538,7 @@
         <v>48</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -4560,7 +4564,7 @@
         <v>48</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -4612,7 +4616,7 @@
         <v>48</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -4638,7 +4642,7 @@
         <v>48</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -4664,7 +4668,7 @@
         <v>48</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -4690,7 +4694,7 @@
         <v>48</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -4716,7 +4720,7 @@
         <v>48</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -4742,7 +4746,7 @@
         <v>48</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -4768,7 +4772,7 @@
         <v>48</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -4794,7 +4798,7 @@
         <v>48</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -4820,7 +4824,7 @@
         <v>48</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -4846,7 +4850,7 @@
         <v>48</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -4872,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -4898,7 +4902,7 @@
         <v>49</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -4924,7 +4928,7 @@
         <v>50</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/Share.xlsx
+++ b/docs/excel/Share.xlsx
@@ -882,7 +882,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -917,6 +917,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -949,7 +955,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -970,6 +976,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1312,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H139" sqref="H139"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117:F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4375,8 +4384,8 @@
       <c r="E117" s="4">
         <v>5</v>
       </c>
-      <c r="F117" s="4">
-        <v>3</v>
+      <c r="F117" s="10">
+        <v>999</v>
       </c>
       <c r="G117" s="7" t="s">
         <v>47</v>
@@ -4401,8 +4410,8 @@
       <c r="E118" s="4">
         <v>1</v>
       </c>
-      <c r="F118" s="4">
-        <v>3</v>
+      <c r="F118" s="10">
+        <v>999</v>
       </c>
       <c r="G118" s="7" t="s">
         <v>51</v>
@@ -4427,8 +4436,8 @@
       <c r="E119" s="4">
         <v>1</v>
       </c>
-      <c r="F119" s="4">
-        <v>3</v>
+      <c r="F119" s="10">
+        <v>999</v>
       </c>
       <c r="G119" s="7" t="s">
         <v>52</v>
@@ -4453,8 +4462,8 @@
       <c r="E120" s="4">
         <v>1</v>
       </c>
-      <c r="F120" s="4">
-        <v>3</v>
+      <c r="F120" s="10">
+        <v>999</v>
       </c>
       <c r="G120" s="7" t="s">
         <v>53</v>
@@ -4479,8 +4488,8 @@
       <c r="E121" s="4">
         <v>1</v>
       </c>
-      <c r="F121" s="4">
-        <v>3</v>
+      <c r="F121" s="10">
+        <v>999</v>
       </c>
       <c r="G121" s="7" t="s">
         <v>54</v>
@@ -4505,8 +4514,8 @@
       <c r="E122" s="4">
         <v>1</v>
       </c>
-      <c r="F122" s="4">
-        <v>3</v>
+      <c r="F122" s="10">
+        <v>999</v>
       </c>
       <c r="G122" s="7" t="s">
         <v>55</v>

--- a/docs/excel/Share.xlsx
+++ b/docs/excel/Share.xlsx
@@ -1321,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117:F122"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4385,7 +4385,7 @@
         <v>5</v>
       </c>
       <c r="F117" s="10">
-        <v>999</v>
+        <v>5</v>
       </c>
       <c r="G117" s="7" t="s">
         <v>47</v>
@@ -4411,7 +4411,7 @@
         <v>1</v>
       </c>
       <c r="F118" s="10">
-        <v>999</v>
+        <v>5</v>
       </c>
       <c r="G118" s="7" t="s">
         <v>51</v>
@@ -4437,7 +4437,7 @@
         <v>1</v>
       </c>
       <c r="F119" s="10">
-        <v>999</v>
+        <v>5</v>
       </c>
       <c r="G119" s="7" t="s">
         <v>52</v>
@@ -4463,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="F120" s="10">
-        <v>999</v>
+        <v>5</v>
       </c>
       <c r="G120" s="7" t="s">
         <v>53</v>
@@ -4489,7 +4489,7 @@
         <v>1</v>
       </c>
       <c r="F121" s="10">
-        <v>999</v>
+        <v>5</v>
       </c>
       <c r="G121" s="7" t="s">
         <v>54</v>
@@ -4515,7 +4515,7 @@
         <v>1</v>
       </c>
       <c r="F122" s="10">
-        <v>999</v>
+        <v>5</v>
       </c>
       <c r="G122" s="7" t="s">
         <v>55</v>
@@ -4904,8 +4904,8 @@
       <c r="E137" s="4">
         <v>10</v>
       </c>
-      <c r="F137" s="4">
-        <v>3</v>
+      <c r="F137" s="10">
+        <v>5</v>
       </c>
       <c r="G137" s="7" t="s">
         <v>49</v>
@@ -4930,8 +4930,8 @@
       <c r="E138" s="4">
         <v>10</v>
       </c>
-      <c r="F138" s="4">
-        <v>3</v>
+      <c r="F138" s="10">
+        <v>5</v>
       </c>
       <c r="G138" s="7" t="s">
         <v>50</v>

--- a/docs/excel/Share.xlsx
+++ b/docs/excel/Share.xlsx
@@ -1321,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F129" sqref="F129"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F139" sqref="F139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4385,7 +4385,7 @@
         <v>5</v>
       </c>
       <c r="F117" s="10">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="G117" s="7" t="s">
         <v>47</v>
@@ -4411,7 +4411,7 @@
         <v>1</v>
       </c>
       <c r="F118" s="10">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="G118" s="7" t="s">
         <v>51</v>
@@ -4437,7 +4437,7 @@
         <v>1</v>
       </c>
       <c r="F119" s="10">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="G119" s="7" t="s">
         <v>52</v>
@@ -4463,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="F120" s="10">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="G120" s="7" t="s">
         <v>53</v>
@@ -4489,7 +4489,7 @@
         <v>1</v>
       </c>
       <c r="F121" s="10">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="G121" s="7" t="s">
         <v>54</v>
@@ -4515,7 +4515,7 @@
         <v>1</v>
       </c>
       <c r="F122" s="10">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="G122" s="7" t="s">
         <v>55</v>
@@ -4905,7 +4905,7 @@
         <v>10</v>
       </c>
       <c r="F137" s="10">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="G137" s="7" t="s">
         <v>49</v>
@@ -4931,7 +4931,7 @@
         <v>10</v>
       </c>
       <c r="F138" s="10">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="G138" s="7" t="s">
         <v>50</v>

--- a/docs/excel/Share.xlsx
+++ b/docs/excel/Share.xlsx
@@ -1321,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F139" sqref="F139"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4411,7 +4411,7 @@
         <v>1</v>
       </c>
       <c r="F118" s="10">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="G118" s="7" t="s">
         <v>51</v>
@@ -4437,7 +4437,7 @@
         <v>1</v>
       </c>
       <c r="F119" s="10">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="G119" s="7" t="s">
         <v>52</v>
@@ -4463,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="F120" s="10">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="G120" s="7" t="s">
         <v>53</v>
@@ -4489,7 +4489,7 @@
         <v>1</v>
       </c>
       <c r="F121" s="10">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="G121" s="7" t="s">
         <v>54</v>
@@ -4515,7 +4515,7 @@
         <v>1</v>
       </c>
       <c r="F122" s="10">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="G122" s="7" t="s">
         <v>55</v>
@@ -4902,10 +4902,10 @@
         <v>1</v>
       </c>
       <c r="E137" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F137" s="10">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="G137" s="7" t="s">
         <v>49</v>
@@ -4928,10 +4928,10 @@
         <v>1</v>
       </c>
       <c r="E138" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F138" s="10">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="G138" s="7" t="s">
         <v>50</v>
